--- a/table6.xlsx
+++ b/table6.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randy666\Documents\projects\ae460\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF6177-4E93-434C-B75D-084D53FFABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,10 +22,10 @@
     <t xml:space="preserve"> Motor Speed [RPM]</t>
   </si>
   <si>
-    <t>actual_velocity(m/s)</t>
+    <t>actual_velocity(ft/s)</t>
   </si>
   <si>
-    <t>uncertainty_velocity(m/s)</t>
+    <t>uncertainty_velocity(ft/s)</t>
   </si>
   <si>
     <t>percent_uncertainty_velocity(%)</t>
@@ -40,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +98,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,24 +385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -480,16 +420,16 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <v>7.5170197938026613</v>
+        <v>24.65989417158893</v>
       </c>
       <c r="E2">
-        <v>3.241625035230931</v>
+        <v>1.472214880755393</v>
       </c>
       <c r="F2">
-        <v>0.43123806031526751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05970077853989963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -500,16 +440,16 @@
         <v>500</v>
       </c>
       <c r="D3">
-        <v>9.5621279928899714</v>
+        <v>31.36895615922932</v>
       </c>
       <c r="E3">
-        <v>4.0990282877333728</v>
+        <v>1.155401834173118</v>
       </c>
       <c r="F3">
-        <v>0.42867322951347769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03683265162883585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,16 +460,16 @@
         <v>600</v>
       </c>
       <c r="D4">
-        <v>11.749421280452401</v>
+        <v>38.54446220724923</v>
       </c>
       <c r="E4">
-        <v>5.0261682164618007</v>
+        <v>0.9370301080465311</v>
       </c>
       <c r="F4">
-        <v>0.42778006648071037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.02431036923042864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -540,16 +480,16 @@
         <v>700</v>
       </c>
       <c r="D5">
-        <v>13.981157095730641</v>
+        <v>45.86576380460284</v>
       </c>
       <c r="E5">
-        <v>5.9759614624646691</v>
+        <v>0.7824977303814229</v>
       </c>
       <c r="F5">
-        <v>0.42742967706796742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.0170606061138547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -560,16 +500,16 @@
         <v>800</v>
       </c>
       <c r="D6">
-        <v>15.98069842677064</v>
+        <v>52.42534179797416</v>
       </c>
       <c r="E6">
-        <v>6.8283158894740463</v>
+        <v>0.6784234762333432</v>
       </c>
       <c r="F6">
-        <v>0.42728519787566649</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01294075447038018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -580,16 +520,16 @@
         <v>900</v>
       </c>
       <c r="D7">
-        <v>17.970325401303391</v>
+        <v>58.95239533498447</v>
       </c>
       <c r="E7">
-        <v>7.6770778655206691</v>
+        <v>0.5952899882574548</v>
       </c>
       <c r="F7">
-        <v>0.42720861721089648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01009780832271269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -600,16 +540,16 @@
         <v>1000</v>
       </c>
       <c r="D8">
-        <v>20.481381819401321</v>
+        <v>67.19001971642291</v>
       </c>
       <c r="E8">
-        <v>8.7487559096287946</v>
+        <v>0.5091407208941731</v>
       </c>
       <c r="F8">
-        <v>0.4271565261940185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.007577624222213562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -620,16 +560,16 @@
         <v>1100</v>
       </c>
       <c r="D9">
-        <v>22.467889106698721</v>
+        <v>73.70683899049627</v>
       </c>
       <c r="E9">
-        <v>9.5967785082138199</v>
+        <v>0.4505527444975025</v>
       </c>
       <c r="F9">
-        <v>0.4271330725658859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.006112767155237747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -640,16 +580,16 @@
         <v>1200</v>
       </c>
       <c r="D10">
-        <v>24.147166695910819</v>
+        <v>79.2157785397618</v>
       </c>
       <c r="E10">
-        <v>10.31373695203273</v>
+        <v>0.4051408465125811</v>
       </c>
       <c r="F10">
-        <v>0.42711996326174761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.005114395818368729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -660,16 +600,16 @@
         <v>1300</v>
       </c>
       <c r="D11">
-        <v>26.436133851841461</v>
+        <v>86.72482991595064</v>
       </c>
       <c r="E11">
-        <v>11.29108535840709</v>
+        <v>0.3465086828935898</v>
       </c>
       <c r="F11">
-        <v>0.42710804165566701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.003995495675568446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -680,13 +620,13 @@
         <v>1400</v>
       </c>
       <c r="D12">
-        <v>28.554060802944871</v>
+        <v>93.67277682975615</v>
       </c>
       <c r="E12">
-        <v>12.19546213556805</v>
+        <v>0.2927954305833644</v>
       </c>
       <c r="F12">
-        <v>0.42710079731672668</v>
+        <v>0.003125725963216614</v>
       </c>
     </row>
   </sheetData>
